--- a/players.xlsx
+++ b/players.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rperson/Library/CloudStorage/ProtonDrive-person.rl@pm.me-folder/Hockey/Sunday Hockey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rperson/Documents/GitHub/hockey-team-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C1586-8885-A647-B32B-49765941AD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFB15B-DA55-D740-9A56-C105694E247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{8F03AA85-43B9-ED4D-B2F9-79F211193666}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="135">
   <si>
     <t>_x000C_</t>
   </si>
@@ -486,9 +499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -526,7 +539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -632,7 +645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -774,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8DD5CA-CDDC-EF41-951E-21543AA03229}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,9 +858,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1786,9 +1797,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>92</v>
       </c>
@@ -1968,9 +1977,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>108</v>
       </c>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rperson/Documents/GitHub/hockey-team-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFB15B-DA55-D740-9A56-C105694E247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FC922-129C-7E4B-9F39-3ED5E74F7BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{8F03AA85-43B9-ED4D-B2F9-79F211193666}"/>
+    <workbookView xWindow="11000" yWindow="1320" windowWidth="34560" windowHeight="21680" xr2:uid="{8F03AA85-43B9-ED4D-B2F9-79F211193666}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
   <si>
     <t>_x000C_</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>Selected</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -797,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8DD5CA-CDDC-EF41-951E-21543AA03229}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,9 +819,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,6 +831,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,6 +843,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,6 +867,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,6 +879,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -892,6 +891,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -903,6 +903,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,6 +915,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -925,6 +927,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -936,9 +939,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -950,6 +951,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -961,6 +963,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,6 +975,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -983,6 +987,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -994,6 +999,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1005,6 +1011,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1016,6 +1023,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1027,6 +1035,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1038,6 +1047,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1049,6 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1060,6 +1071,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1071,6 +1083,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1082,6 +1095,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1093,6 +1107,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1104,6 +1119,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1115,6 +1131,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1126,6 +1143,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1137,6 +1155,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1148,6 +1167,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1159,9 +1179,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1173,6 +1191,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1184,6 +1203,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1195,6 +1215,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1206,6 +1227,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1217,6 +1239,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1228,9 +1251,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1242,6 +1263,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1253,6 +1275,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1264,6 +1287,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
@@ -1275,6 +1299,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
@@ -1286,6 +1311,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
@@ -1297,6 +1323,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
@@ -1308,6 +1335,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
@@ -1319,9 +1347,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -1333,6 +1359,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -1344,6 +1371,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
@@ -1355,9 +1383,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
@@ -1369,6 +1395,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
@@ -1380,6 +1407,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
@@ -1391,9 +1419,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -1405,6 +1431,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1416,9 +1443,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>59</v>
       </c>
@@ -1430,6 +1455,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
@@ -1441,6 +1467,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
@@ -1452,6 +1479,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
@@ -1463,6 +1491,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>63</v>
       </c>
@@ -1474,6 +1503,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>64</v>
       </c>
@@ -1485,9 +1515,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>65</v>
       </c>
@@ -1499,6 +1527,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>66</v>
       </c>
@@ -1510,6 +1539,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>67</v>
       </c>
@@ -1521,6 +1551,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -1532,6 +1563,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -1543,6 +1575,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
@@ -1554,6 +1587,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>71</v>
       </c>
@@ -1565,6 +1599,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>72</v>
       </c>
@@ -1576,9 +1611,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>73</v>
       </c>
@@ -1590,9 +1623,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>74</v>
       </c>
@@ -1604,6 +1635,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
@@ -1615,6 +1647,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>76</v>
       </c>
@@ -1626,6 +1659,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>77</v>
       </c>
@@ -1637,6 +1671,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>78</v>
       </c>
@@ -1648,6 +1683,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>79</v>
       </c>
@@ -1659,6 +1695,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>80</v>
       </c>
@@ -1670,6 +1707,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
@@ -1681,6 +1719,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>82</v>
       </c>
@@ -1692,9 +1731,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>83</v>
       </c>
@@ -1706,9 +1743,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -1720,6 +1755,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>85</v>
       </c>
@@ -1731,6 +1767,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>86</v>
       </c>
@@ -1742,6 +1779,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>87</v>
       </c>
@@ -1753,6 +1791,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>88</v>
       </c>
@@ -1764,6 +1803,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>89</v>
       </c>
@@ -1775,6 +1815,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>90</v>
       </c>
@@ -1786,6 +1827,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>91</v>
       </c>
@@ -1809,6 +1851,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>93</v>
       </c>
@@ -1820,6 +1863,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>94</v>
       </c>
@@ -1831,6 +1875,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>95</v>
       </c>
@@ -1842,6 +1887,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>96</v>
       </c>
@@ -1853,6 +1899,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>97</v>
       </c>
@@ -1864,6 +1911,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>98</v>
       </c>
@@ -1875,6 +1923,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
@@ -1886,6 +1935,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>100</v>
       </c>
@@ -1897,6 +1947,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>101</v>
       </c>
@@ -1908,6 +1959,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>102</v>
       </c>
@@ -1919,6 +1971,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>103</v>
       </c>
@@ -1930,6 +1983,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>104</v>
       </c>
@@ -1941,6 +1995,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>105</v>
       </c>
@@ -1952,6 +2007,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>106</v>
       </c>
@@ -1963,9 +2019,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>107</v>
       </c>
@@ -1989,6 +2043,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>109</v>
       </c>
@@ -2000,6 +2055,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>110</v>
       </c>
@@ -2011,6 +2067,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
@@ -2022,6 +2079,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>112</v>
       </c>
@@ -2033,6 +2091,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>113</v>
       </c>
@@ -2044,6 +2103,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>114</v>
       </c>
@@ -2055,6 +2115,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>115</v>
       </c>
@@ -2066,6 +2127,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>116</v>
       </c>
@@ -2077,6 +2139,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>117</v>
       </c>
@@ -2088,6 +2151,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>118</v>
       </c>
@@ -2099,6 +2163,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>119</v>
       </c>
@@ -2110,6 +2175,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>120</v>
       </c>
@@ -2121,6 +2187,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>121</v>
       </c>
@@ -2132,6 +2199,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>122</v>
       </c>
@@ -2143,6 +2211,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>123</v>
       </c>
@@ -2154,6 +2223,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>124</v>
       </c>
@@ -2165,9 +2235,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>125</v>
       </c>
@@ -2179,6 +2247,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>126</v>
       </c>
@@ -2190,6 +2259,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>127</v>
       </c>
@@ -2201,6 +2271,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>128</v>
       </c>
@@ -2212,6 +2283,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>129</v>
       </c>
@@ -2223,6 +2295,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>130</v>
       </c>
@@ -2234,9 +2307,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>131</v>
       </c>
@@ -2248,9 +2319,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>132</v>
       </c>
